--- a/IndependentProject/docs/resultsIndProj.xlsx
+++ b/IndependentProject/docs/resultsIndProj.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -464,37 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -509,6 +479,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,78 +805,78 @@
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="12" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="15" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="16"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="R6" s="3" t="s">
@@ -884,329 +884,329 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="25">
+      <c r="B7" s="15">
         <v>0</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14">
         <v>0.21790000000000001</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="7">
         <v>3.04E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="18">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="18">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="18">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="18">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="18">
+      <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="18">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
+      <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="20">
+      <c r="B15" s="10">
         <v>8</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+      <c r="B17" s="10">
         <v>10</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="21">
+      <c r="B18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
+      <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="19">
+      <c r="B20" s="9">
         <v>13</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
+      <c r="B21" s="9">
         <v>14</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="19">
+      <c r="B22" s="9">
         <v>15</v>
       </c>
       <c r="C22" s="5"/>
@@ -1222,12 +1222,12 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
+      <c r="B23" s="9">
         <v>16</v>
       </c>
       <c r="C23" s="5"/>
@@ -1243,12 +1243,12 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="19">
+      <c r="B24" s="9">
         <v>17</v>
       </c>
       <c r="C24" s="5"/>
@@ -1264,12 +1264,12 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="19">
+      <c r="B25" s="9">
         <v>18</v>
       </c>
       <c r="C25" s="5"/>
@@ -1285,12 +1285,12 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="19">
+      <c r="B26" s="9">
         <v>19</v>
       </c>
       <c r="C26" s="5"/>
@@ -1306,12 +1306,12 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
+      <c r="B27" s="12">
         <v>20</v>
       </c>
       <c r="C27" s="5"/>
@@ -1327,9 +1327,9 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
